--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nid1-Col13a1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H2">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I2">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J2">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N2">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P2">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q2">
-        <v>14.99000719985022</v>
+        <v>55.8123991213109</v>
       </c>
       <c r="R2">
-        <v>134.910064798652</v>
+        <v>502.3115920917981</v>
       </c>
       <c r="S2">
-        <v>0.02681580626520489</v>
+        <v>0.0582303168454423</v>
       </c>
       <c r="T2">
-        <v>0.0268158062652049</v>
+        <v>0.0582303168454423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.07598433333334</v>
+        <v>100.8744713333333</v>
       </c>
       <c r="H3">
-        <v>132.227953</v>
+        <v>302.623414</v>
       </c>
       <c r="I3">
-        <v>0.0701615836309811</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="J3">
-        <v>0.07016158363098113</v>
+        <v>0.1452075237922473</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N3">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P3">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q3">
-        <v>24.230243475438</v>
+        <v>83.36562209435913</v>
       </c>
       <c r="R3">
-        <v>218.072191278942</v>
+        <v>750.2905988492321</v>
       </c>
       <c r="S3">
-        <v>0.04334577736577621</v>
+        <v>0.08697720694680502</v>
       </c>
       <c r="T3">
-        <v>0.04334577736577623</v>
+        <v>0.08697720694680502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>1619.290924</v>
       </c>
       <c r="I4">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J4">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N4">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P4">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q4">
-        <v>183.5707356780462</v>
+        <v>298.6434861375409</v>
       </c>
       <c r="R4">
-        <v>1652.136621102416</v>
+        <v>2687.791375237868</v>
       </c>
       <c r="S4">
-        <v>0.3283919225837869</v>
+        <v>0.3115813886412273</v>
       </c>
       <c r="T4">
-        <v>0.328391922583787</v>
+        <v>0.3115813886412274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>1619.290924</v>
       </c>
       <c r="I5">
-        <v>0.8592132980166052</v>
+        <v>0.7769829249672668</v>
       </c>
       <c r="J5">
-        <v>0.8592132980166053</v>
+        <v>0.776982924967267</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N5">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P5">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q5">
-        <v>296.728584659304</v>
+        <v>446.0765062646791</v>
       </c>
       <c r="R5">
-        <v>2670.557261933736</v>
+        <v>4014.688556382112</v>
       </c>
       <c r="S5">
-        <v>0.5308213754328183</v>
+        <v>0.4654015363260395</v>
       </c>
       <c r="T5">
-        <v>0.5308213754328184</v>
+        <v>0.4654015363260396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H6">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I6">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J6">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N6">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P6">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q6">
-        <v>15.03711473241422</v>
+        <v>29.76571043118633</v>
       </c>
       <c r="R6">
-        <v>135.334032591728</v>
+        <v>267.891393880677</v>
       </c>
       <c r="S6">
-        <v>0.02690007750337219</v>
+        <v>0.03105522745528874</v>
       </c>
       <c r="T6">
-        <v>0.0269000775033722</v>
+        <v>0.03105522745528874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.21449733333333</v>
+        <v>53.798087</v>
       </c>
       <c r="H7">
-        <v>132.643492</v>
+        <v>161.394261</v>
       </c>
       <c r="I7">
-        <v>0.07038207312385281</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="J7">
-        <v>0.07038207312385283</v>
+        <v>0.07744166482137986</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N7">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P7">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q7">
-        <v>24.306389335032</v>
+        <v>44.46031717401867</v>
       </c>
       <c r="R7">
-        <v>218.757504015288</v>
+        <v>400.142854566168</v>
       </c>
       <c r="S7">
-        <v>0.04348199562048062</v>
+        <v>0.04638643736609112</v>
       </c>
       <c r="T7">
-        <v>0.04348199562048064</v>
+        <v>0.04638643736609112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H8">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I8">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J8">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3400946666666667</v>
+        <v>0.5532856666666667</v>
       </c>
       <c r="N8">
-        <v>1.020284</v>
+        <v>1.659857</v>
       </c>
       <c r="O8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="P8">
-        <v>0.3822006984084648</v>
+        <v>0.4010144607159208</v>
       </c>
       <c r="Q8">
-        <v>0.05192656062577777</v>
+        <v>0.1414019268301111</v>
       </c>
       <c r="R8">
-        <v>0.467339045632</v>
+        <v>1.272617341471</v>
       </c>
       <c r="S8">
-        <v>9.289205610075934E-05</v>
+        <v>0.0001475277739624969</v>
       </c>
       <c r="T8">
-        <v>9.289205610075936E-05</v>
+        <v>0.000147527773962497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1526826666666667</v>
+        <v>0.2555676666666666</v>
       </c>
       <c r="H9">
-        <v>0.458048</v>
+        <v>0.7667029999999999</v>
       </c>
       <c r="I9">
-        <v>0.0002430452285607388</v>
+        <v>0.0003678864191059829</v>
       </c>
       <c r="J9">
-        <v>0.0002430452285607389</v>
+        <v>0.000367886419105983</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5497379999999999</v>
+        <v>0.8264293333333333</v>
       </c>
       <c r="N9">
-        <v>1.649214</v>
+        <v>2.479288</v>
       </c>
       <c r="O9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="P9">
-        <v>0.6177993015915352</v>
+        <v>0.5989855392840792</v>
       </c>
       <c r="Q9">
-        <v>0.08393546380799999</v>
+        <v>0.2112086163848889</v>
       </c>
       <c r="R9">
-        <v>0.755419174272</v>
+        <v>1.900877547464</v>
       </c>
       <c r="S9">
-        <v>0.0001501531724599795</v>
+        <v>0.0002203586451434859</v>
       </c>
       <c r="T9">
-        <v>0.0001501531724599795</v>
+        <v>0.000220358645143486</v>
       </c>
     </row>
   </sheetData>
